--- a/model/Auswertung/mehrspaltiges Layout/Ergebnis_Qwen/results.xlsx
+++ b/model/Auswertung/mehrspaltiges Layout/Ergebnis_Qwen/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,279 +757,349 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1876</v>
+        <v>740</v>
       </c>
       <c r="B5" t="n">
-        <v>1134</v>
+        <v>724</v>
       </c>
       <c r="C5" t="n">
-        <v>742</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3961</v>
+        <v>0.0432</v>
       </c>
       <c r="F5" t="n">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="G5" t="n">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c r="H5" t="n">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2262</v>
+        <v>0.2784</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1443</v>
+        <v>0.1856</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9403</v>
+        <v>0.8302</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9844000000000001</v>
+        <v>0.8713</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8262</v>
+        <v>0.9072</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.863</v>
+        <v>0.9462</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8796</v>
+        <v>0.867</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9197</v>
+        <v>0.9072</v>
       </c>
       <c r="T5" t="n">
-        <v>0.896</v>
+        <v>0.7851</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4015</v>
+        <v>0.5668</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>869</v>
+        <v>1876</v>
       </c>
       <c r="B6" t="n">
-        <v>804</v>
+        <v>1134</v>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>742</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1082</v>
+        <v>0.3961</v>
       </c>
       <c r="F6" t="n">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="G6" t="n">
-        <v>125</v>
+        <v>252</v>
       </c>
       <c r="H6" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>0.223</v>
+        <v>0.2262</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1824</v>
+        <v>0.1443</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9258999999999999</v>
+        <v>0.9403</v>
       </c>
       <c r="O6" t="n">
-        <v>0.947</v>
+        <v>0.9844000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8446</v>
+        <v>0.8262</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8621</v>
+        <v>0.863</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8834</v>
+        <v>0.8796</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9025</v>
+        <v>0.9197</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8581</v>
+        <v>0.896</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5784</v>
+        <v>0.4015</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1637</v>
+        <v>869</v>
       </c>
       <c r="B7" t="n">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C7" t="n">
-        <v>831</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5076000000000001</v>
+        <v>0.1082</v>
       </c>
       <c r="F7" t="n">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="G7" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H7" t="n">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5174</v>
+        <v>0.223</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3822</v>
+        <v>0.1824</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8571</v>
+        <v>0.9258999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9494</v>
+        <v>0.947</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5792</v>
+        <v>0.8446</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6224</v>
+        <v>0.8621</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6912</v>
+        <v>0.8834</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7519</v>
+        <v>0.9025</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6675</v>
+        <v>0.8581</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2327</v>
+        <v>0.5784</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>766</v>
+        <v>1637</v>
       </c>
       <c r="B8" t="n">
-        <v>686</v>
+        <v>806</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>831</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0.5076000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>259</v>
+      </c>
+      <c r="G8" t="n">
+        <v>150</v>
+      </c>
+      <c r="H8" t="n">
+        <v>109</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5174</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3822</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9494</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5792</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.6224</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.6912</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.7519</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.6675</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.2327</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>766</v>
+      </c>
+      <c r="B9" t="n">
+        <v>686</v>
+      </c>
+      <c r="C9" t="n">
+        <v>80</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.1044</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>129</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>108</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>21</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>7</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L9" t="n">
         <v>0.2171</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M9" t="n">
         <v>0.1395</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N9" t="n">
         <v>0.9391</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O9" t="n">
         <v>0.9818</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>0.8372000000000001</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>0.871</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R9" t="n">
         <v>0.8852</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>0.9231</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>0.8425</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U9" t="n">
         <v>0.7329</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
